--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538308\Documents\gdp\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29E1EC-F617-4AA1-A740-D33AFB1CE5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FD52B-3F7E-4272-B04F-E982A78E8250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>Team-03, Section-02, Dr. Denise Case</t>
   </si>
   <si>
-    <t>Client Name: Dr. Charles Hoot</t>
-  </si>
-  <si>
     <t>Project Manager: Rajeshwari Rudravaram</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>End Date: 12/09/2020</t>
+  </si>
+  <si>
+    <t>Client Name: Dr. Denise Case</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -694,7 +694,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">

--- a/Schedule Management.xlsx
+++ b/Schedule Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538308\Documents\gdp\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FD52B-3F7E-4272-B04F-E982A78E8250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F24B0B-B396-4ABD-A575-3A559A6E5DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Schedule Management</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">  4.2 PWA Implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.3 Android/iOS Implementation</t>
-  </si>
-  <si>
     <t>5. Monitoring and Controlling</t>
   </si>
   <si>
@@ -125,10 +122,10 @@
     <t>Start Date: 08/19/2020</t>
   </si>
   <si>
-    <t>End Date: 12/09/2020</t>
-  </si>
-  <si>
     <t>Client Name: Dr. Denise Case</t>
+  </si>
+  <si>
+    <t>End Date: 05/05/2021</t>
   </si>
 </sst>
 </file>
@@ -253,23 +250,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,6 +268,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,55 +558,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="61.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -621,8 +618,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>31</v>
+      <c r="A4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -634,8 +631,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
+      <c r="A5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -647,8 +644,8 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -660,7 +657,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1"/>
@@ -694,432 +691,472 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>44062</v>
       </c>
-      <c r="C12" s="16">
-        <v>44063</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="C12" s="12">
+        <v>44068</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13">
         <f>SUM(D12:I12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16">
-        <v>44063</v>
-      </c>
-      <c r="C13" s="16">
-        <v>44065</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:J24" si="0">SUM(D13:I13)</f>
-        <v>7</v>
+      <c r="B13" s="12">
+        <v>44069</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44084</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" ref="J13:J23" si="0">SUM(D13:I13)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16">
-        <v>44065</v>
-      </c>
-      <c r="C14" s="16">
-        <v>44119</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="12">
+        <v>44085</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44174</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16">
-        <v>44065</v>
-      </c>
-      <c r="C15" s="16">
-        <v>44073</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="B15" s="12">
+        <v>44085</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44116</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44117</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44129</v>
+      </c>
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
-        <v>2</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44130</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44163</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44164</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44174</v>
+      </c>
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44218</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44275</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44218</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44252</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44253</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44275</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44277</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44298</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="16">
-        <v>44073</v>
-      </c>
-      <c r="C16" s="16">
-        <v>44086</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44299</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44321</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16">
-        <v>44086</v>
-      </c>
-      <c r="C17" s="16">
-        <v>44100</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <v>2</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="16">
-        <v>44101</v>
-      </c>
-      <c r="C18" s="16">
-        <v>44119</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="16">
-        <v>44120</v>
-      </c>
-      <c r="C19" s="16">
-        <v>44155</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16">
-        <v>44120</v>
-      </c>
-      <c r="C20" s="16">
-        <v>44134</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
-        <v>2</v>
-      </c>
-      <c r="H20" s="14">
-        <v>4</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="16">
-        <v>44134</v>
-      </c>
-      <c r="C21" s="16">
-        <v>44147</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14">
-        <v>3</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="16">
-        <v>44148</v>
-      </c>
-      <c r="C22" s="16">
-        <v>44155</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
-        <v>5</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="16">
-        <v>44156</v>
-      </c>
-      <c r="C23" s="16">
-        <v>44166</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>2</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14">
-        <v>5</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="16">
-        <v>44167</v>
-      </c>
-      <c r="C24" s="16">
-        <v>44174</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <v>2</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25:J25" si="1">SUM(D12:D23)</f>
+        <v>21</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="14">
-        <f>SUM(D12:D24)</f>
-        <v>12</v>
-      </c>
-      <c r="E26" s="14">
-        <f>SUM(E12:E24)</f>
-        <v>10</v>
-      </c>
-      <c r="F26" s="14">
-        <f>SUM(F12:F24)</f>
-        <v>11</v>
-      </c>
-      <c r="G26" s="14">
-        <f>SUM(G12:G24)</f>
-        <v>10</v>
-      </c>
-      <c r="H26" s="14">
-        <f>SUM(H12:H24)</f>
-        <v>12</v>
-      </c>
-      <c r="I26" s="14">
-        <f>SUM(I12:I24)</f>
-        <v>10</v>
-      </c>
-      <c r="J26" s="5">
-        <f>SUM(J12:J24)</f>
-        <v>65</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
@@ -1187,17 +1224,6 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
